--- a/data/income_statement/3digits/total/773_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/773_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>773-Renting and leasing of other machinery, equipment and tangible goods</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>773-Renting and leasing of other machinery, equipment and tangible goods</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>298954.20536</v>
@@ -959,34 +865,39 @@
         <v>432810.17247</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>569623.24078</v>
+        <v>569623.2407800001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>695223.9280399999</v>
+        <v>695340.56702</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>792863.0007000001</v>
+        <v>793110.07849</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>941732.82815</v>
+        <v>948196.54675</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1094673.12169</v>
+        <v>1159920.03804</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1657795.57132</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2911015.17098</v>
+        <v>2917425.17127</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3550191.1041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3600220.344899999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3974083.948</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>261065.38115</v>
@@ -995,37 +906,42 @@
         <v>291657.94794</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>390810.32406</v>
+        <v>390810.3240600001</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>508617.33944</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>587691.80328</v>
+        <v>587808.44226</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>727995.4864200001</v>
+        <v>728242.29772</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>811214.07924</v>
+        <v>813100.3014999999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>962053.78986</v>
+        <v>1027178.19645</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1423703.34188</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2171847.29733</v>
+        <v>2178247.63838</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2766407.4382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2816234.94807</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3361917.738</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>22918.94083</v>
@@ -1046,7 +962,7 @@
         <v>41954.38529</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>113804.08497</v>
+        <v>118101.30822</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>110778.86866</v>
@@ -1055,16 +971,21 @@
         <v>207659.94491</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>704125.52919</v>
+        <v>704125.5291899999</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>740843.4775299999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>565170.6310000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>14969.88338</v>
@@ -1082,28 +1003,33 @@
         <v>16906.53776</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>22913.12899</v>
+        <v>22913.39548</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>16714.66394</v>
+        <v>16994.93703</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>21840.46317</v>
+        <v>21962.97293</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>26432.28453</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>35042.34446</v>
+        <v>35052.0037</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>42940.18837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>43141.91929999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>46995.579</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1952.28099</v>
@@ -1127,22 +1053,27 @@
         <v>12145.00895</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>8353.848699999999</v>
+        <v>10450.96196</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>24308.82981</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>30481.39244</v>
+        <v>30495.17498</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>52868.30198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>53303.67890000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>72665.16099999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1658.90025</v>
@@ -1160,28 +1091,33 @@
         <v>3478.35322</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7832.97553</v>
+        <v>7832.975530000001</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>10349.98549</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>7665.25743</v>
+        <v>9155.035370000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>12369.29119</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21048.81952</v>
+        <v>21062.60206</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>42883.61027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>43297.23719</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>41639.656</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>277.57331</v>
@@ -1205,7 +1141,7 @@
         <v>1395.31833</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>563.0199399999999</v>
+        <v>1170.08211</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>10667.32629</v>
@@ -1214,13 +1150,18 @@
         <v>4487.52584</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3986.7134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4008.4634</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>20103.949</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>15.80743</v>
@@ -1235,7 +1176,7 @@
         <v>128.56239</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>274.0957099999999</v>
+        <v>274.09571</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>230.7451</v>
@@ -1244,7 +1185,7 @@
         <v>399.70513</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>125.57133</v>
+        <v>125.84448</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1272.21233</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>5997.97831</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>10921.556</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>297001.92437</v>
@@ -1274,31 +1220,36 @@
         <v>566099.15853</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>689488.0722899999</v>
+        <v>689604.71127</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>784536.85075</v>
+        <v>784783.92854</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>929587.8192</v>
+        <v>936051.5377999999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1086319.27299</v>
+        <v>1149469.07608</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1633486.74151</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2880533.77854</v>
+        <v>2886929.99629</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3497322.80212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3546916.666000001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3901418.787</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>221972.77481</v>
@@ -1316,31 +1267,36 @@
         <v>517843.54666</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>551969.2005599999</v>
+        <v>551970.1946800001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>653427.179</v>
+        <v>658318.63702</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>819181.62785</v>
+        <v>837139.3186200002</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1260920.22836</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2257032.34723</v>
+        <v>2261658.17061</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2680560.31193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2721398.3749</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2947845.797</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6640.49938</v>
+        <v>6640.499380000001</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>3056.31716</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>34564.27143</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>33959.259</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>54005.99571</v>
@@ -1391,31 +1352,36 @@
         <v>97180.15729</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>79653.28427</v>
+        <v>79653.28426999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>99190.81627000001</v>
+        <v>99190.81627</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>151494.86482</v>
+        <v>151557.13491</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>191278.91559</v>
+        <v>192604.3396</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>484671.20942</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>430164.68115</v>
+        <v>430582.665</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>428984.44055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>441701.42685</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>585393.573</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>159986.06851</v>
@@ -1433,34 +1399,39 @@
         <v>425292.74323</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>437552.10184</v>
+        <v>437553.0959600001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>477534.82709</v>
+        <v>482364.01502</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>592539.1892</v>
+        <v>609171.4559599999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>755186.5483500001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1777627.75736</v>
+        <v>1781835.59648</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2207587.41685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2235708.49352</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2309279.025</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1340.21121</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>774.9359099999999</v>
+        <v>774.93591</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>2100.63793</v>
@@ -1469,7 +1440,7 @@
         <v>2503.58583</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>6098.855070000001</v>
+        <v>6098.85507</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>4528.810560000001</v>
@@ -1484,16 +1455,21 @@
         <v>10054.88905</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>31149.82983</v>
+        <v>31149.83024</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>9424.1831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9424.183100000002</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>19213.94</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>75029.14956000001</v>
@@ -1508,31 +1484,36 @@
         <v>124350.10281</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>171644.52563</v>
+        <v>171761.16461</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>232567.65019</v>
+        <v>232813.73386</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>276160.6402</v>
+        <v>277732.90078</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>267137.64514</v>
+        <v>312329.7574600001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>372566.51315</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>623501.4313099999</v>
+        <v>625271.8256799999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>816762.4901899999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>825518.2911</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>953572.99</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>63261.98642</v>
@@ -1547,31 +1528,36 @@
         <v>124767.54933</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>146119.06595</v>
+        <v>146214.82956</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>172699.09574</v>
+        <v>172885.45549</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>210850.49054</v>
+        <v>211096.16723</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>208289.76188</v>
+        <v>252490.98485</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>267309.72033</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>456379.4471699999</v>
+        <v>457521.49638</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>525977.41513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>531922.09536</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>514038.469</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>162.96743</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>1252.72381</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2997.17</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>5670.568800000001</v>
@@ -1631,25 +1622,30 @@
         <v>37147.91391</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>43962.89105</v>
+        <v>43974.83104999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>27700.40307</v>
+        <v>60145.00689</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>73809.17167</v>
+        <v>73809.17166999998</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>101476.47115</v>
+        <v>101486.77836</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>132074.57814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>132545.5871</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>146499.864</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>57428.45019</v>
@@ -1664,76 +1660,86 @@
         <v>102235.25846</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>113326.04316</v>
+        <v>113421.80677</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>135249.83462</v>
+        <v>135436.19437</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>166522.30414</v>
+        <v>166756.04083</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>180292.40501</v>
+        <v>192049.02416</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>192016.85036</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>352658.6942199999</v>
+        <v>353790.43622</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>392650.1131799999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>398123.78445</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>364541.435</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>11767.16314</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>4593.457270000002</v>
+        <v>4593.45727</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-515.8325999999996</v>
+        <v>-515.8326000000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-417.4465199999958</v>
+        <v>-417.4465199999996</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>25525.45968</v>
+        <v>25546.33505</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>59868.55445</v>
+        <v>59928.27837</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>65310.14966</v>
+        <v>66636.73354999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>58847.88326</v>
+        <v>59838.77261</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>105256.79282</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>167121.98414</v>
+        <v>167750.3293</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>290785.07506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>293596.19574</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>439534.521</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>72896.44226000001</v>
+        <v>72896.44226</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>48114.08638</v>
+        <v>48114.08637999999</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>64638.25253</v>
@@ -1742,40 +1748,45 @@
         <v>69550.284</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>92814.44353</v>
+        <v>92818.52124</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>83285.25640000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>90897.61848</v>
+        <v>91082.39478</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>100448.3006</v>
+        <v>102005.63885</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>121699.20732</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>914707.8420299999</v>
+        <v>914677.1214399999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>661158.3212100001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>663437.5276</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1046575.987</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>24117.04209</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5851.258519999999</v>
+        <v>5851.25852</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>684.9846799999999</v>
+        <v>684.98468</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>14509.96718</v>
@@ -1796,16 +1807,21 @@
         <v>15980.69602</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>47426.26844</v>
+        <v>47426.26844000001</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>31657.81133</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>51384.53</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>624.5472000000001</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>2099.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3539.494</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>9027.104660000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6753.568539999999</v>
+        <v>6753.56854</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>8879.107820000001</v>
@@ -1859,16 +1880,16 @@
         <v>9712.299130000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5695.984549999999</v>
+        <v>5698.124809999999</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>5445.966</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6258.076119999999</v>
+        <v>6258.811680000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6030.26988</v>
+        <v>6162.97246</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>14161.94015</v>
@@ -1877,13 +1898,18 @@
         <v>35467.99504</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>35296.40111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>35349.03878</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>38572.457</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>342.46308</v>
@@ -1907,7 +1933,7 @@
         <v>0.4417</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5.45503</v>
+        <v>5.455030000000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>9.38818</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>223.49244</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>250.714</v>
@@ -1937,7 +1968,7 @@
         <v>70.6724</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>743.5641599999999</v>
+        <v>743.56416</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>1187.42669</v>
@@ -1955,16 +1986,21 @@
         <v>1974.67398</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8713.77937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>9013.77937</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>54518.539</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>43.12363</v>
+        <v>43.12363000000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>9.337549999999998</v>
@@ -1985,7 +2021,7 @@
         <v>105.13363</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>281.21704</v>
+        <v>280.82754</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>438.99184</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>738.3814699999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5960.366</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>34176.32669</v>
+        <v>34176.32668999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>29830.44441</v>
@@ -2021,10 +2062,10 @@
         <v>42809.64246</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>72780.71493999999</v>
+        <v>72886.15568</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>67435.75452</v>
+        <v>68652.70853999999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>79376.28895</v>
@@ -2033,13 +2074,18 @@
         <v>721539.8678299999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>480747.30823</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>482695.47668</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>805178.634</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>14.569</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.10101</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>4315.019899999999</v>
@@ -2129,34 +2185,39 @@
         <v>7126.44981</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4562.503529999999</v>
+        <v>4562.50353</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3380.29448</v>
+        <v>3382.23193</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>6580.21971</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6075.16384</v>
+        <v>6153.76384</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10951.50681</v>
+        <v>11159.57796</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>6735.689240000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>87129.27819</v>
+        <v>87098.5576</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>101681.94726</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>101660.34753</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>87395.908</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>41056.33583</v>
@@ -2174,28 +2235,33 @@
         <v>78957.08894</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>57343.1713</v>
+        <v>57343.17129999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>122340.27768</v>
+        <v>122511.82824</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>110893.73753</v>
+        <v>112149.06843</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>125054.76895</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>860519.87837</v>
+        <v>860847.8837799999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>604889.1636999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>609413.4005799999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1271246.75</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>427.30269</v>
@@ -2213,7 +2279,7 @@
         <v>344.02942</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>447.53503</v>
+        <v>447.5350299999999</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>1046.62124</v>
@@ -2222,19 +2288,24 @@
         <v>352.08094</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7488.29054</v>
+        <v>7488.290539999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7169.747820000001</v>
+        <v>7169.74782</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>13129.88667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>13130.38667</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9703.173000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2086.85407</v>
@@ -2255,25 +2326,30 @@
         <v>2629.69457</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7394.171960000001</v>
+        <v>7394.17196</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5081.72593</v>
+        <v>5081.725930000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7109.5464</v>
+        <v>7109.546399999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>32407.736</v>
+        <v>32735.74141</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19416.69634</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>19957.74776</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>82357.709</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>11.92554</v>
@@ -2297,7 +2373,7 @@
         <v>0.00466</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>867.1931099999999</v>
+        <v>868.59201</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>39.67955000000001</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2167.394</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>37793.61353</v>
@@ -2321,37 +2402,42 @@
         <v>27611.45846</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>75352.26751000001</v>
+        <v>75352.26750999999</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>27373.96272</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>71872.16038999999</v>
+        <v>71872.16039</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>51807.20158</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>107253.03446</v>
+        <v>107424.58502</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>99064.85053999998</v>
+        <v>100219.78074</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>103557.35695</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>790664.9018100001</v>
+        <v>790664.90181</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>537045.7191100001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>541028.4045600001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1120692.342</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>35.482</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>16.37064</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>736.64</v>
+        <v>736.6399999999999</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>1305.36532</v>
@@ -2453,7 +2549,7 @@
         <v>6630.58783</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5522.7349</v>
+        <v>5621.7367</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>6830.84516</v>
@@ -2462,13 +2558,18 @@
         <v>30277.35524</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>35280.49094</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>35280.49095</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>56290.644</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>16140.61535</v>
@@ -2483,31 +2584,36 @@
         <v>33541.86824</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>36343.82129</v>
+        <v>36343.82128999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>44700.80362999999</v>
+        <v>44722.56888000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>55762.60843</v>
+        <v>55847.24194000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>51050.88712</v>
+        <v>55091.94079000001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>76195.90659</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>423405.3299199999</v>
+        <v>423494.3901300001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>376828.11265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>378001.1097</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>407800.095</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>15300.07672</v>
@@ -2525,31 +2631,36 @@
         <v>22037.10539</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>37577.29011</v>
+        <v>37599.05536</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>52664.51946</v>
+        <v>52749.15297</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>50008.386</v>
+        <v>54049.43967</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>74807.98526999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>274538.8075</v>
+        <v>274627.86771</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>328776.34031</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>329949.33736</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>335823.668</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>840.53863</v>
+        <v>840.5386299999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>332.46842</v>
@@ -2581,56 +2692,66 @@
       <c r="M46" s="48" t="n">
         <v>48051.77234</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>71976.427</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>27466.65422</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>8790.82213</v>
+        <v>8790.822129999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-48302.84676000001</v>
+        <v>-48302.84676</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>640.6755700000003</v>
+        <v>640.6755699999982</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3038.992980000004</v>
+        <v>3063.946060000002</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>41109.83592</v>
+        <v>41147.79459</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-21895.11797</v>
+        <v>-20639.94185</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-2648.440789999999</v>
+        <v>-5396.597760000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>25705.3246</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-202095.38212</v>
+        <v>-201914.82317</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-29773.88008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-30380.78694</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-192936.337</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>8761.698710000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>9633.717379999998</v>
+        <v>9633.71738</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>12646.91856</v>
@@ -2639,43 +2760,48 @@
         <v>25010.97235</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>38149.21597999999</v>
+        <v>38149.216</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>17492.059</v>
+        <v>17573.90912</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>61418.43126999999</v>
+        <v>61523.5665</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>23582.00388</v>
+        <v>23793.71192</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>32644.41059</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>110651.7551</v>
+        <v>110653.0881</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>206511.30145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>207250.31396</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>97380.406</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>318.86825</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>372.55748</v>
+        <v>372.5574800000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>58.90959000000001</v>
+        <v>58.90958999999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>0.5266700000000001</v>
+        <v>0.52667</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>4.73252</v>
@@ -2687,22 +2813,27 @@
         <v>172.6058</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>400.88358</v>
+        <v>401.17524</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2051.6835</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1689.23102</v>
+        <v>1690.56402</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>4935.52043</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2849.398</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>8442.830460000001</v>
@@ -2717,16 +2848,16 @@
         <v>25010.44568</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>38144.48346</v>
+        <v>38144.48348</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>17285.76998</v>
+        <v>17367.6201</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>61245.82547</v>
+        <v>61350.96069999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>23181.1203</v>
+        <v>23392.53668</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>30592.72709</v>
@@ -2735,13 +2866,18 @@
         <v>108962.52408</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>201575.78102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>202314.79353</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>94531.008</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3774.14705</v>
@@ -2750,37 +2886,42 @@
         <v>5094.35021</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>38930.33951</v>
+        <v>38930.33951000001</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>21615.28303</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>15972.33991</v>
+        <v>15972.46834</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>18394.40242</v>
+        <v>18395.02908</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>28759.35145</v>
+        <v>29153.82555</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>32098.86134</v>
+        <v>41385.43954000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>24156.10228</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>61827.45785</v>
+        <v>61835.53282</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>99943.21021999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>100157.10551</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>42269.536</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>184.57042</v>
@@ -2795,7 +2936,7 @@
         <v>2015.84877</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>71.33043000000001</v>
+        <v>71.33042999999999</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>191.8648</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>319.0467599999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1065.414</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>188.84601</v>
@@ -2831,7 +2977,7 @@
         <v>104.00522</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>448.50807</v>
+        <v>448.5080700000001</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>851.71788</v>
@@ -2840,31 +2986,36 @@
         <v>1098.22158</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>911.6434400000001</v>
+        <v>911.6434399999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>728.0415300000001</v>
+        <v>977.93846</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>422.29161</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>403.7918299999999</v>
+        <v>403.79183</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>1825.05108</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>8761.043</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3400.73062</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4388.632360000001</v>
+        <v>4388.63236</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>33636.01091</v>
@@ -2873,31 +3024,36 @@
         <v>19150.92619</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>15049.2916</v>
+        <v>15049.42003</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>17104.31604</v>
+        <v>17104.9427</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>27480.87227</v>
+        <v>27875.34637</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>31330.30814</v>
+        <v>40366.98940999999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>23708.20306</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>61190.46898999999</v>
+        <v>61198.54396</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>97799.11237999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>98013.00767000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>32443.079</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>32454.20588</v>
@@ -2906,37 +3062,42 @@
         <v>13330.1893</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-74586.26771000001</v>
+        <v>-74586.26771</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4036.364890000001</v>
+        <v>4036.36489</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>25215.86905</v>
+        <v>25240.69372</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>40207.4925</v>
+        <v>40326.67463</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>10763.96185</v>
+        <v>11729.7991</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-11165.29825</v>
+        <v>-22988.32538</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>34193.63290999999</v>
+        <v>34193.63291</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-153271.08487</v>
+        <v>-153097.26789</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>76794.21114999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>76712.42150999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-137825.467</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4608.23594</v>
@@ -2948,7 +3109,7 @@
         <v>8444.76066</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6862.11795</v>
+        <v>6862.117949999999</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>11246.43959</v>
@@ -2957,25 +3118,30 @@
         <v>10334.03911</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>14071.01982</v>
+        <v>14086.06317</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>15787.76654</v>
+        <v>15820.4885</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>11292.21307</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>21919.64355</v>
+        <v>21934.79935</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>74924.04267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>75024.86264000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>45537.479</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>27845.96994</v>
@@ -2984,34 +3150,37 @@
         <v>8237.74115</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-83031.02837</v>
+        <v>-83031.02836999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-2825.75306</v>
+        <v>-2825.753059999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>13969.42946</v>
+        <v>13994.25413</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>29873.45339</v>
+        <v>29992.63552</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-3307.05797</v>
+        <v>-2356.26407</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-26953.06479</v>
+        <v>-38808.81388</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>22901.41984</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-175190.72842</v>
+        <v>-175032.06724</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1870.16848</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1687.55886999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-183362.946</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>300</v>
@@ -3044,28 +3216,31 @@
         <v>390</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>546</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>646</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>